--- a/Localization/AMG.xlsx
+++ b/Localization/AMG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AMGRM\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902AE37F-D8A8-4CE5-A057-68DBB8343BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933B182B-51B3-42CC-BE44-C8728EC6BCB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>TextName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -440,6 +440,142 @@
   </si>
   <si>
     <t>IP列表已刷新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ModelAdvancedPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP.ParametersName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP.ParametersMin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP.ParametersMax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP.ParametersAlign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI.SetButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI.ClearButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.FileUnisset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.ModelAddationException</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加模型时发生错误：{{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.ModelConfigLoadSuccess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件读取成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.ModelConfigSaveSuccess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.ModelConfigUnisset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型设置文件不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取文件时发生错误：{{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件保存到：{{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.ModelConfigLoadException</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.ModelConfigSaveException</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存文件时发生错误：{{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ShortcutPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCP.Action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCP.Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCP.Duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间(Param)(0为松开才归位)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -845,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -972,324 +1108,456 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>78</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>68</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="E32">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="6" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C48" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C69" t="s">
         <v>100</v>
       </c>
     </row>

--- a/Localization/AMG.xlsx
+++ b/Localization/AMG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AMGRM\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933B182B-51B3-42CC-BE44-C8728EC6BCB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024B1D5E-CD2B-4580-B897-8923167B6C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14505" yWindow="1170" windowWidth="20010" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>TextName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -383,10 +383,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LOG.WSClientException</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LOG.XDPClientConnect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -423,14 +419,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>时间: {{0}} 发生错误：{{1}} {{2}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间:{{0}} 发生错误：{{1}} {{2}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LOG.XDPServerException</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -576,6 +564,78 @@
   </si>
   <si>
     <t>持续时间(Param)(0为松开才归位)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI.USBSwitchText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB开关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB Switch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#LOG.WSC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.WSCClientStarting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户连接启动中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.WSCClientIPFailed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析IP失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户连接已经启动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.WSCClientStarted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.WSCClientException</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.WSCClientStartedFailed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户连接启动失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.WSCClientStopped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户连接已经关闭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户连接发生错误：{{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器发生错误：{{0}} {{1}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间: {{0}} 发生错误：{{0}} {{1}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +643,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +715,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -676,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -701,6 +770,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -981,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,513 +1122,569 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
+      <c r="A6" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-    </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-    </row>
     <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>106</v>
+      <c r="A27" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-    </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" t="s">
-        <v>135</v>
+      <c r="A38" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39">
-        <v>60</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>131</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
+      <c r="A41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
         <v>123</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="61" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Localization/AMG.xlsx
+++ b/Localization/AMG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AMGRM\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024B1D5E-CD2B-4580-B897-8923167B6C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA776549-6D3E-44C3-BD57-56BC4156CA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14505" yWindow="1170" windowWidth="20010" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
   <si>
     <t>TextName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -399,14 +399,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LOG.XDPServerStart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOG.XDPServerStop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>服务器已经停止</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -579,10 +571,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#LOG.WSC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LOG.WSCClientStarting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -636,6 +624,66 @@
   </si>
   <si>
     <t>时间: {{0}} 发生错误：{{0}} {{1}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#LOG-WSC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#LOG-USB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.XDPServerStarted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.XDPServerStopped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.USBClientStarting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB连接启动中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.USBClientStarted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.USBClientException</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.USBClientStartedFailed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.USBClientStopped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB连接已经启动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB连接发生错误：{{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB连接已经关闭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB连接启动失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG.USBClientIPFailed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1051,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1123,13 +1171,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
         <v>135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1189,18 +1237,18 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1326,39 +1374,39 @@
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1405,23 +1453,23 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E40">
         <v>60</v>
@@ -1429,10 +1477,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1516,66 +1564,66 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1591,7 +1639,7 @@
         <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1599,7 +1647,7 @@
         <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1607,12 +1655,12 @@
         <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
         <v>92</v>
@@ -1620,71 +1668,124 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Localization/AMG.xlsx
+++ b/Localization/AMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AMGRM\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA776549-6D3E-44C3-BD57-56BC4156CA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAE55BC-922D-4B2F-89DD-83AE844C7A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="1170" windowWidth="20010" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="1530" windowWidth="20010" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="215">
   <si>
     <t>TextName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Shortcut Panel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>快捷键窗口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -151,26 +147,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>模型细调窗口开关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI.ModelAdvancedSwitchText</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Model Advanced Panel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>启动连接</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Link Start</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#ModelAdvanced</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -191,14 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>捕捉丢失归正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capture Lost Reset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI.RemoveModelButton</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -235,14 +211,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丢失触发：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MA.LostResetText</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,18 +219,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>校准模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Align Model</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MA.SaveModelSettingsButton</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -271,30 +227,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Load</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MA.LoadModelSettingsButton</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>模型显示层级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MA.ModelLevelSliderText</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -371,14 +307,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>校准模型：{{0}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置模型：{{0}} 的IP为：{{1}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#LOG-WS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -419,10 +347,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IP列表已刷新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#ModelAdvancedPanel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -487,18 +411,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>添加模型时发生错误：{{0}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LOG.ModelConfigLoadSuccess</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>文件读取成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LOG.ModelConfigSaveSuccess</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -511,10 +427,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>读取文件时发生错误：{{0}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>文件保存到：{{0}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -527,10 +439,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>保存文件时发生错误：{{0}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#ShortcutPanel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -587,10 +495,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>客户连接已经启动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LOG.WSCClientStarted</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -667,10 +571,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USB连接已经启动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>USB连接发生错误：{{0}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -684,6 +584,306 @@
   </si>
   <si>
     <t>LOG.USBClientIPFailed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Options</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotkey Panel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotkey name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibration tracking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>载入设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型现实层级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimal value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibration value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw order setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model setting not found</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载模型时发生错误：{{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型设置读取成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准跟踪：{{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准跟踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced tracking panel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置模型：{{0}} 的设备为：{{1}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server Error {{0}}{{1}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP conversion failed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB connecting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client connecting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client connection error {{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client connection failed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client connection lost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usb connection error {{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usb connection failed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usb connection lost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪丢失触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪丢失归正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级跟踪面板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server online</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server offline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存文件时失败：{{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取文件时失败：{{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File not exist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备列表已刷新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device list refreshed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Client connection complete </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Usb connection complete </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB连接完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户连接完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model setting load complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Ip address {{0}} : {{1}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load model {{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove model {{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select model {{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cailbration tracking model {{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load model failed {{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File load failed {{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save file failed {{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{{0}} : user {{1}} connection complete </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{0}} : user {{1}} disconnect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{0}} :  error {{0}}{{1}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binding {{0}} to device {{1}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save file to {{0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tracking lost\nsetting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tracking lost\nreset switch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save\nmodel setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load\nmodel setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCP.Invert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCP.Lock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI.ToZeroButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归零</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +891,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +972,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF485054"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -793,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -819,6 +1025,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1099,19 +1306,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="51.125" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="42.625" customWidth="1"/>
-    <col min="5" max="5" width="62.125" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1171,13 +1378,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1185,607 +1392,764 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="C72" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" t="s">
+        <v>123</v>
+      </c>
+      <c r="D78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>127</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="C84" t="s">
         <v>131</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="C85" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" t="s">
         <v>116</v>
       </c>
-      <c r="C56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
+      <c r="D89" t="s">
         <v>164</v>
-      </c>
-      <c r="C86" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Localization/AMG.xlsx
+++ b/Localization/AMG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AMGRM\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAE55BC-922D-4B2F-89DD-83AE844C7A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3438DE27-D2BF-4593-A0B8-781515B27BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="1530" windowWidth="20010" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,10 +743,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>读取文件时失败：{{0}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Startup complete</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -807,10 +803,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>File load failed {{0}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Save file failed {{0}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -884,6 +876,14 @@
   </si>
   <si>
     <t>Tap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取文件时失败：{{0}} ，可能是跨版本不兼容配置文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">File load failed {{0}} ,plz check if your settings.json match the software version </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1455,13 +1455,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" t="s">
         <v>210</v>
-      </c>
-      <c r="C13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
         <v>174</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1546,7 +1546,7 @@
         <v>173</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1568,7 +1568,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>148</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1728,24 +1728,24 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" t="s">
         <v>206</v>
-      </c>
-      <c r="C43" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1779,7 +1779,7 @@
         <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1790,7 +1790,7 @@
         <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1801,7 +1801,7 @@
         <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1812,7 +1812,7 @@
         <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1823,7 +1823,7 @@
         <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1845,7 +1845,7 @@
         <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1853,10 +1853,10 @@
         <v>79</v>
       </c>
       <c r="C56" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" t="s">
         <v>182</v>
-      </c>
-      <c r="D56" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1867,7 +1867,7 @@
         <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1878,7 +1878,7 @@
         <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1889,7 +1889,7 @@
         <v>158</v>
       </c>
       <c r="D59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1908,10 +1908,10 @@
         <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1922,7 +1922,7 @@
         <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1933,7 +1933,7 @@
         <v>178</v>
       </c>
       <c r="D63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1952,7 +1952,7 @@
         <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1963,7 +1963,7 @@
         <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1974,7 +1974,7 @@
         <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2031,10 +2031,10 @@
         <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2102,10 +2102,10 @@
         <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">

--- a/Localization/AMG.xlsx
+++ b/Localization/AMG.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AMGRM\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3438DE27-D2BF-4593-A0B8-781515B27BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CB1AA7-BC23-46D3-9CC7-A3BA105CFC2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="1530" windowWidth="20010" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="1815" windowWidth="20010" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMG" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
   <si>
     <t>TextName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -463,10 +464,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>持续时间(Param)(0为松开才归位)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI.USBSwitchText</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -587,10 +584,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Options</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Clear</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -723,10 +716,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>跟踪丢失归正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>高级跟踪面板</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -884,6 +873,54 @@
   </si>
   <si>
     <t xml:space="preserve">File load failed {{0}} ,plz check if your settings.json match the software version </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA.ModelMotionLoopText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪丢失\n归正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA.LostResetEyeSwitchText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢失睁眼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open eyes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop\nmotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCP.Loop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1306,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1378,13 +1415,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
         <v>110</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1395,7 +1432,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1425,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1450,18 +1487,18 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1472,7 +1509,7 @@
         <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1483,7 +1520,7 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1532,10 +1569,10 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1543,10 +1580,10 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1554,10 +1591,10 @@
         <v>47</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1568,7 +1605,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1576,10 +1613,10 @@
         <v>50</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1587,569 +1624,601 @@
         <v>51</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="27" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="D34" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>31</v>
       </c>
-      <c r="D37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" t="s">
-        <v>188</v>
+        <v>15</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>94</v>
       </c>
-      <c r="D57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" t="s">
-        <v>158</v>
-      </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>100</v>
       </c>
-      <c r="D62" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
+      <c r="D64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C63" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="C65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" t="s">
         <v>75</v>
       </c>
-      <c r="D71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+      <c r="D73" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C72" t="s">
-        <v>124</v>
-      </c>
-      <c r="D72" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76" t="s">
-        <v>114</v>
-      </c>
-      <c r="D76" t="s">
-        <v>166</v>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" t="s">
-        <v>186</v>
-      </c>
-      <c r="D77" t="s">
-        <v>183</v>
+      <c r="A77" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>119</v>
+      <c r="A79" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
-        <v>121</v>
+      <c r="A80" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C80" t="s">
         <v>122</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" t="s">
         <v>115</v>
       </c>
-      <c r="C81" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" t="s">
-        <v>165</v>
+      <c r="D83" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C85" t="s">
-        <v>185</v>
-      </c>
-      <c r="D85" t="s">
-        <v>184</v>
+      <c r="A85" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D86" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>134</v>
+      <c r="A87" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="C87" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="D87" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" t="s">
         <v>135</v>
       </c>
-      <c r="C88" t="s">
-        <v>137</v>
-      </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
-        <v>164</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Localization/AMG.xlsx
+++ b/Localization/AMG.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AMGRM\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CB1AA7-BC23-46D3-9CC7-A3BA105CFC2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098838F8-7E6B-43DE-B0F5-D1637A73C807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="1815" windowWidth="20010" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMG" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="229">
   <si>
     <t>TextName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -616,10 +615,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>模型现实层级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Maximum value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -921,6 +916,30 @@
   </si>
   <si>
     <t>Set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP.ResolutionText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP.ResolutionXText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP.ResolutionYText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型显示层级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1343,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1462,10 +1481,10 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1487,18 +1506,18 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" t="s">
         <v>205</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>206</v>
-      </c>
-      <c r="D13" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1569,10 +1588,10 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1580,10 +1599,10 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1591,7 +1610,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>145</v>
@@ -1605,7 +1624,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1616,7 +1635,7 @@
         <v>146</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1624,34 +1643,34 @@
         <v>51</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>213</v>
-      </c>
       <c r="D27" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="E28" s="11"/>
     </row>
@@ -1671,7 +1690,7 @@
         <v>82</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1682,7 +1701,7 @@
         <v>84</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1693,7 +1712,7 @@
         <v>86</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1704,7 +1723,7 @@
         <v>88</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1743,482 +1762,509 @@
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>103</v>
+      <c r="A41" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41">
+        <v>1280</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" t="s">
-        <v>142</v>
+        <v>227</v>
+      </c>
+      <c r="C42">
+        <v>720</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" t="s">
-        <v>143</v>
-      </c>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" t="s">
-        <v>222</v>
-      </c>
-      <c r="D44" t="s">
-        <v>144</v>
+      <c r="A44" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D47" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
+      <c r="A48" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>21</v>
+      <c r="A49" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>6</v>
+        <v>218</v>
+      </c>
+      <c r="C50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" t="s">
-        <v>176</v>
-      </c>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" t="s">
-        <v>185</v>
+      <c r="A52" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" t="s">
-        <v>186</v>
+        <v>15</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C62" t="s">
         <v>94</v>
       </c>
-      <c r="D59" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" t="s">
-        <v>155</v>
-      </c>
-      <c r="D60" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" t="s">
-        <v>99</v>
-      </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C67" t="s">
         <v>100</v>
       </c>
-      <c r="D64" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+      <c r="D67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C65" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+      <c r="C68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" t="s">
-        <v>76</v>
-      </c>
-      <c r="D69" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C76" t="s">
         <v>75</v>
       </c>
-      <c r="D73" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+      <c r="D76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C77" t="s">
         <v>123</v>
       </c>
-      <c r="D74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+      <c r="D77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79" t="s">
-        <v>183</v>
-      </c>
-      <c r="D79" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="D82" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>126</v>
+      <c r="A85" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C87" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" t="s">
-        <v>135</v>
-      </c>
-      <c r="D88" t="s">
-        <v>168</v>
+      <c r="A88" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C90" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" t="s">
+        <v>136</v>
+      </c>
+      <c r="D93" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C94" t="s">
         <v>115</v>
       </c>
-      <c r="D91" t="s">
-        <v>162</v>
+      <c r="D94" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Localization/AMG.xlsx
+++ b/Localization/AMG.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AMGRM\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098838F8-7E6B-43DE-B0F5-D1637A73C807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E05DDAC8-7C4A-4CC7-9B84-7A9604CAEFC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMG" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
   <si>
     <t>TextName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -275,18 +276,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DX透明开关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI.DXTransparentSwitchText</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DX Transparent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>主版本：{{0}}, 构建版本：{{1}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -887,14 +880,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>丢失睁眼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open eyes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Loop\nmotion</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -940,6 +925,34 @@
   </si>
   <si>
     <t>模型显示层级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DX透明置顶前置开关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DX Transparent (Lock to top)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢失眨眼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA.ModelKeyboardBindText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blink eyes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定鼠标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bind \nMouse</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1362,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1434,13 +1447,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
         <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1451,7 +1464,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1481,10 +1494,10 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1500,35 +1513,35 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" t="s">
         <v>204</v>
-      </c>
-      <c r="C13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1539,7 +1552,7 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1555,13 +1568,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1588,10 +1601,10 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1599,10 +1612,10 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1610,10 +1623,10 @@
         <v>47</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1624,7 +1637,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1632,10 +1645,10 @@
         <v>50</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1643,628 +1656,641 @@
         <v>51</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>80</v>
-      </c>
+    <row r="29" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>151</v>
+      <c r="A31" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C41">
-        <v>1280</v>
+        <v>219</v>
+      </c>
+      <c r="C41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C42">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43">
         <v>720</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-    </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="A44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" t="s">
-        <v>142</v>
+      <c r="A45" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
         <v>105</v>
       </c>
-      <c r="C46" t="s">
-        <v>106</v>
-      </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D48" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" t="s">
-        <v>175</v>
+        <v>15</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" t="s">
-        <v>174</v>
-      </c>
-      <c r="D68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" t="s">
-        <v>191</v>
+      <c r="A72" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="10" t="s">
-        <v>116</v>
+      <c r="A82" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>117</v>
+      <c r="A83" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>119</v>
       </c>
-      <c r="D84" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" t="s">
-        <v>115</v>
-      </c>
       <c r="D86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>126</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+      <c r="A89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C89" t="s">
-        <v>130</v>
-      </c>
-      <c r="D89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C90" t="s">
-        <v>181</v>
-      </c>
-      <c r="D90" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="D91" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" t="s">
         <v>133</v>
       </c>
-      <c r="C92" t="s">
-        <v>137</v>
-      </c>
       <c r="D92" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" t="s">
         <v>134</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D93" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C94" t="s">
-        <v>115</v>
-      </c>
-      <c r="D94" t="s">
-        <v>161</v>
+      <c r="C95" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Localization/AMG.xlsx
+++ b/Localization/AMG.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AMGRM\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E05DDAC8-7C4A-4CC7-9B84-7A9604CAEFC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730B4D74-25F0-4687-9D96-25A223BCF8DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="2355" windowWidth="27150" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMG" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="238">
   <si>
     <t>TextName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -953,6 +952,30 @@
   </si>
   <si>
     <t>Bind \nMouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI.DeleteButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCP.Record</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>录制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1375,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1546,750 +1569,781 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>225</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-    </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>168</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42">
-        <v>1280</v>
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44">
+        <v>1280</v>
+      </c>
+      <c r="D44">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C43">
+      <c r="C45">
         <v>720</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="D45">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>215</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>6</v>
+        <v>235</v>
+      </c>
+      <c r="C54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" t="s">
-        <v>173</v>
-      </c>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" t="s">
-        <v>182</v>
+      <c r="A56" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" t="s">
-        <v>183</v>
+        <v>15</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C66" t="s">
         <v>92</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D66" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" t="s">
-        <v>153</v>
-      </c>
-      <c r="D65" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C71" t="s">
         <v>98</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D71" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C72" t="s">
         <v>172</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D72" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D75" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C80" t="s">
         <v>73</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D80" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
+    <row r="81" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C81" t="s">
         <v>121</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D81" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" t="s">
-        <v>111</v>
-      </c>
-      <c r="D82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" t="s">
-        <v>120</v>
-      </c>
-      <c r="D84" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D87" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>124</v>
+      <c r="A89" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C90" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D90" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" t="s">
-        <v>179</v>
-      </c>
-      <c r="D91" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" t="s">
-        <v>133</v>
-      </c>
-      <c r="D92" t="s">
-        <v>165</v>
+      <c r="A92" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D93" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="D94" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" t="s">
+        <v>134</v>
+      </c>
+      <c r="D97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C98" t="s">
         <v>113</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D98" t="s">
         <v>159</v>
       </c>
     </row>

--- a/Localization/AMG.xlsx
+++ b/Localization/AMG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AMGRM\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730B4D74-25F0-4687-9D96-25A223BCF8DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B305894-7A5E-4AD2-BD28-5CBE2CF07067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="2355" windowWidth="27150" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="2070" windowWidth="27150" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="242">
   <si>
     <t>TextName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -976,6 +976,22 @@
   </si>
   <si>
     <t>Record</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI.DanmuSystemSwitchText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹幕连接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat Connection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP.DefaultRoomIdText</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1398,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1525,825 +1541,850 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>225</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>168</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="36" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+    <row r="38" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>41</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>52</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>31</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>220</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>1280</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>1280</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>720</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>720</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47">
+        <v>-1</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>217</v>
-      </c>
-      <c r="D50" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
+      <c r="A55" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>21</v>
+      <c r="A56" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>6</v>
+        <v>235</v>
+      </c>
+      <c r="C57" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" t="s">
-        <v>173</v>
-      </c>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" t="s">
-        <v>182</v>
+      <c r="A59" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" t="s">
-        <v>183</v>
+        <v>15</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C69" t="s">
         <v>92</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D69" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
-      </c>
-      <c r="D67" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C74" t="s">
         <v>98</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D74" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C75" t="s">
         <v>172</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D75" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" t="s">
-        <v>122</v>
-      </c>
-      <c r="D78" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C83" t="s">
         <v>73</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D83" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
+    <row r="84" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C84" t="s">
         <v>121</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D84" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" t="s">
-        <v>111</v>
-      </c>
-      <c r="D85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" t="s">
-        <v>180</v>
-      </c>
-      <c r="D86" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C87" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>124</v>
+      <c r="A92" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C94" t="s">
-        <v>179</v>
-      </c>
-      <c r="D94" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C95" t="s">
-        <v>133</v>
-      </c>
-      <c r="D95" t="s">
-        <v>165</v>
+      <c r="A95" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D96" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C97" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="D97" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" t="s">
+        <v>134</v>
+      </c>
+      <c r="D100" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C101" t="s">
         <v>113</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D101" t="s">
         <v>159</v>
       </c>
     </row>
